--- a/JV/jv_3.xlsx
+++ b/JV/jv_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\1.EPFL\MA4\PdS\PV_lab_PdS\JV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D9DE5-A1B3-49EE-A985-741880E44055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE193F3-1987-41EC-944B-75774557484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="662" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data full" sheetId="1" r:id="rId1"/>
@@ -161,16 +161,16 @@
     <t>Reverse</t>
   </si>
   <si>
-    <t>w1</t>
-  </si>
-  <si>
-    <t>w2</t>
-  </si>
-  <si>
     <t>1_2</t>
   </si>
   <si>
     <t>6_2</t>
+  </si>
+  <si>
+    <t>Eff %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eff % </t>
   </si>
 </sst>
 </file>
@@ -338,8 +338,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'R-Eff'!$B$1</c:f>
@@ -347,6 +347,144 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>DKDH1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'R-Eff'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eff % </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'R-Eff'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECBE-4BDC-B18D-C62BE57359A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R-Eff'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DKDH2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -375,20 +513,95 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'R-Eff'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eff % </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R-Eff'!$B$2:$B$4</c:f>
+              <c:f>'R-Eff'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13.38</c:v>
+                  <c:v>13.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.13</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0399999999999991</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,7 +609,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D9D3-4854-BB02-FBBD3820F989}"/>
+              <c16:uniqueId val="{00000001-ECBE-4BDC-B18D-C62BE57359A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -405,11 +618,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R-Eff'!$C$1</c:f>
+              <c:f>'R-Eff'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DKDH2</c:v>
+                  <c:v>DKTH1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -438,20 +651,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'R-Eff'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eff % </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R-Eff'!$C$2:$C$4</c:f>
+              <c:f>'R-Eff'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13.62</c:v>
+                  <c:v>14.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.25</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,7 +744,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D9D3-4854-BB02-FBBD3820F989}"/>
+              <c16:uniqueId val="{00000002-ECBE-4BDC-B18D-C62BE57359A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -468,11 +753,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R-Eff'!$D$1</c:f>
+              <c:f>'R-Eff'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DKTH1</c:v>
+                  <c:v>DKTH2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -501,17 +786,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'R-Eff'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eff % </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R-Eff'!$D$2:$D$4</c:f>
+              <c:f>'R-Eff'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14.81</c:v>
+                  <c:v>12.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,7 +879,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D9D3-4854-BB02-FBBD3820F989}"/>
+              <c16:uniqueId val="{00000003-ECBE-4BDC-B18D-C62BE57359A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -528,11 +888,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R-Eff'!$E$1</c:f>
+              <c:f>'R-Eff'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DKTH2</c:v>
+                  <c:v>TKDH1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -561,17 +921,95 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'R-Eff'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eff % </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R-Eff'!$E$2:$E$4</c:f>
+              <c:f>'R-Eff'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.78</c:v>
+                  <c:v>14.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,7 +1017,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D9D3-4854-BB02-FBBD3820F989}"/>
+              <c16:uniqueId val="{00000004-ECBE-4BDC-B18D-C62BE57359A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -588,11 +1026,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R-Eff'!$F$1</c:f>
+              <c:f>'R-Eff'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TKDH1</c:v>
+                  <c:v>TKDH2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -621,20 +1059,95 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'R-Eff'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eff % </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R-Eff'!$F$2:$F$4</c:f>
+              <c:f>'R-Eff'!$G$2:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14.08</c:v>
+                  <c:v>14.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.68</c:v>
+                  <c:v>14.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.18</c:v>
+                  <c:v>10.029999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,7 +1155,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D9D3-4854-BB02-FBBD3820F989}"/>
+              <c16:uniqueId val="{00000005-ECBE-4BDC-B18D-C62BE57359A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -651,11 +1164,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R-Eff'!$G$1</c:f>
+              <c:f>'R-Eff'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TKDH2</c:v>
+                  <c:v>TKTH1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -690,20 +1203,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'R-Eff'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eff % </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R-Eff'!$G$2:$G$4</c:f>
+              <c:f>'R-Eff'!$H$2:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14.82</c:v>
+                  <c:v>10.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.029999999999999</c:v>
+                  <c:v>3.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,7 +1296,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D9D3-4854-BB02-FBBD3820F989}"/>
+              <c16:uniqueId val="{00000006-ECBE-4BDC-B18D-C62BE57359A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -720,11 +1305,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R-Eff'!$H$1</c:f>
+              <c:f>'R-Eff'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TKTH1</c:v>
+                  <c:v>TKTH2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -759,17 +1344,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'R-Eff'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eff % </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eff %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R-Eff'!$H$2:$H$4</c:f>
+              <c:f>'R-Eff'!$I$2:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.89</c:v>
+                  <c:v>10.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.43</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,167 +1437,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D9D3-4854-BB02-FBBD3820F989}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R-Eff'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TKTH2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'R-Eff'!$I$2:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10.41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D9D3-4854-BB02-FBBD3820F989}"/>
+              <c16:uniqueId val="{00000007-ECBE-4BDC-B18D-C62BE57359A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1964171984"/>
-        <c:axId val="1964231344"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'R-Eff'!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Eff</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'R-Eff'!$A$2:$A$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-D9D3-4854-BB02-FBBD3820F989}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="478314608"/>
+        <c:axId val="478316048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1964171984"/>
+        <c:axId val="478314608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -995,14 +1512,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1964231344"/>
+        <c:crossAx val="478316048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
-        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1964231344"/>
+        <c:axId val="478316048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,6 +1538,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>PCE (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1059,7 +1630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1964171984"/>
+        <c:crossAx val="478314608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2194,6 +2765,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:strRef>
               <c:f>'R-Voc'!$A$2:$A$4</c:f>
@@ -2274,6 +2903,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:strRef>
               <c:f>'R-Voc'!$A$2:$A$4</c:f>
@@ -2354,6 +3041,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:strRef>
               <c:f>'R-Voc'!$A$2:$A$4</c:f>
@@ -2431,6 +3176,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:strRef>
               <c:f>'R-Voc'!$A$2:$A$4</c:f>
@@ -2508,6 +3311,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:strRef>
               <c:f>'R-Voc'!$A$2:$A$4</c:f>
@@ -2588,6 +3449,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:strRef>
               <c:f>'R-Voc'!$A$2:$A$4</c:f>
@@ -2674,6 +3593,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:strRef>
               <c:f>'R-Voc'!$A$2:$A$4</c:f>
@@ -2757,6 +3734,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:strRef>
               <c:f>'R-Voc'!$A$2:$A$4</c:f>
@@ -2797,8 +3832,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -12004,23 +13040,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D182FF-A46B-3608-912F-121050166540}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEC5F8A-5C21-5E07-8711-59D59AE27555}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13777,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -13795,7 +14831,7 @@
         <v>7</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -13923,16 +14959,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274E7CDF-D210-486B-B441-41933AF33F5A}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
@@ -13960,7 +14994,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>13.38</v>
@@ -13989,7 +15023,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>13.13</v>
@@ -14017,6 +15051,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
       <c r="B4">
         <v>9.0399999999999991</v>
       </c>
@@ -14188,7 +15225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66456C4B-BD66-46A9-9D9C-CC3173815969}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
